--- a/Pokemon/配置文件/1.配置文件/1.1/corps_dungeon_info.xlsx
+++ b/Pokemon/配置文件/1.配置文件/1.1/corps_dungeon_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$R$165</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -553,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -739,27 +739,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狼级灾害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>中级难度</t>
   </si>
   <si>
-    <t>虎级灾害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>高级难度</t>
   </si>
   <si>
-    <t>鬼级灾害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>超级难度</t>
   </si>
   <si>
-    <t>龙级灾害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>普通难度</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +963,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1013,7 +1017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,9 +1049,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1079,6 +1084,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1254,14 +1260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="9" style="6"/>
     <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
@@ -1278,14 +1284,14 @@
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1458,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6">
         <v>40001</v>
@@ -1496,7 +1502,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6">
         <v>40002</v>
@@ -1540,7 +1546,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6">
         <v>40003</v>
@@ -1584,7 +1590,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6">
         <v>40004</v>
@@ -1628,7 +1634,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6">
         <v>40005</v>
@@ -1672,7 +1678,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6">
         <v>40006</v>
@@ -1716,7 +1722,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6">
         <v>40007</v>
@@ -1760,7 +1766,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6">
         <v>40008</v>
@@ -1804,7 +1810,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6">
         <v>40009</v>
@@ -1848,7 +1854,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6">
         <v>40010</v>
@@ -1892,7 +1898,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="6">
         <v>40011</v>
@@ -1936,7 +1942,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="6">
         <v>40012</v>
@@ -1980,7 +1986,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6">
         <v>40013</v>
@@ -2024,7 +2030,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="6">
         <v>40014</v>
@@ -2068,7 +2074,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="6">
         <v>40015</v>
@@ -2112,7 +2118,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="6">
         <v>40016</v>
@@ -2156,7 +2162,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" s="6">
         <v>40017</v>
@@ -2200,7 +2206,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>18</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="6">
         <v>40018</v>
@@ -2244,7 +2250,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="6">
         <v>40019</v>
@@ -2288,7 +2294,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>20</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="6">
         <v>40020</v>
@@ -2332,7 +2338,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>21</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E26" s="6">
         <v>40021</v>
@@ -2376,7 +2382,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>22</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="6">
         <v>40022</v>
@@ -2420,7 +2426,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>23</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="6">
         <v>40023</v>
@@ -2464,7 +2470,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>24</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="6">
         <v>40024</v>
@@ -2508,7 +2514,7 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>25</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E30" s="6">
         <v>40025</v>
@@ -2552,7 +2558,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>26</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="6">
         <v>40026</v>
@@ -2596,7 +2602,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>27</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="6">
         <v>40027</v>
@@ -2640,7 +2646,7 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>28</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="6">
         <v>40028</v>
@@ -2684,7 +2690,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>29</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E34" s="6">
         <v>40029</v>
@@ -2728,7 +2734,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>30</v>
       </c>
@@ -2739,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="6">
         <v>40030</v>
@@ -2772,7 +2778,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>31</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="6">
         <v>40031</v>
@@ -2815,7 +2821,7 @@
       <c r="O36" s="6"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>32</v>
       </c>
@@ -2826,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="6">
         <v>40032</v>
@@ -2856,7 +2862,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>33</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E38" s="6">
         <v>40033</v>
@@ -2897,7 +2903,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>34</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="6">
         <v>40034</v>
@@ -2938,7 +2944,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>35</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" s="6">
         <v>40035</v>
@@ -2979,7 +2985,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>36</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" s="6">
         <v>40036</v>
@@ -3020,7 +3026,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>37</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E42" s="6">
         <v>40037</v>
@@ -3061,7 +3067,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>38</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="6">
         <v>40038</v>
@@ -3102,7 +3108,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>39</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" s="6">
         <v>40039</v>
@@ -3143,7 +3149,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>40</v>
       </c>
@@ -3154,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="6">
         <v>40040</v>
@@ -3184,7 +3190,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>41</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E46" s="6">
         <v>40041</v>
@@ -3225,7 +3231,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>42</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="6">
         <v>40042</v>
@@ -3266,7 +3272,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>43</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" s="6">
         <v>40043</v>
@@ -3307,7 +3313,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>44</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" s="6">
         <v>40044</v>
@@ -3348,7 +3354,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>45</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E50" s="6">
         <v>40045</v>
@@ -3389,7 +3395,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>46</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="6">
         <v>40046</v>
@@ -3430,7 +3436,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>47</v>
       </c>
@@ -3441,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E52" s="6">
         <v>40047</v>
@@ -3471,7 +3477,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>48</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53" s="6">
         <v>40048</v>
@@ -3512,7 +3518,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>49</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E54" s="6">
         <v>40049</v>
@@ -3553,7 +3559,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>50</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="6">
         <v>40050</v>
@@ -3594,7 +3600,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>51</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E56" s="6">
         <v>40051</v>
@@ -3635,7 +3641,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>52</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E57" s="6">
         <v>40052</v>
@@ -3676,7 +3682,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>53</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E58" s="6">
         <v>40053</v>
@@ -3717,7 +3723,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>54</v>
       </c>
@@ -3728,7 +3734,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E59" s="6">
         <v>40054</v>
@@ -3758,7 +3764,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>55</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E60" s="6">
         <v>40055</v>
@@ -3799,7 +3805,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>56</v>
       </c>
@@ -3810,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E61" s="6">
         <v>40056</v>
@@ -3840,7 +3846,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>57</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E62" s="6">
         <v>40057</v>
@@ -3881,7 +3887,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>58</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" s="6">
         <v>40058</v>
@@ -3922,7 +3928,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>59</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64" s="6">
         <v>40059</v>
@@ -3963,7 +3969,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <v>60</v>
       </c>
@@ -3974,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E65" s="6">
         <v>40060</v>
@@ -4004,7 +4010,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <v>61</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E66" s="6">
         <v>40061</v>
@@ -4045,7 +4051,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>62</v>
       </c>
@@ -4056,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E67" s="6">
         <v>40062</v>
@@ -4086,7 +4092,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>63</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E68" s="6">
         <v>40063</v>
@@ -4127,7 +4133,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <v>64</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E69" s="6">
         <v>40064</v>
@@ -4168,7 +4174,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>65</v>
       </c>
@@ -4179,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E70" s="6">
         <v>40065</v>
@@ -4209,7 +4215,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <v>66</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E71" s="6">
         <v>40066</v>
@@ -4250,7 +4256,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <v>67</v>
       </c>
@@ -4261,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E72" s="6">
         <v>40067</v>
@@ -4291,7 +4297,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <v>68</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E73" s="6">
         <v>40068</v>
@@ -4332,7 +4338,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <v>69</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E74" s="6">
         <v>40069</v>
@@ -4373,7 +4379,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <v>70</v>
       </c>
@@ -4384,7 +4390,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E75" s="6">
         <v>40070</v>
@@ -4414,7 +4420,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="6">
         <v>71</v>
       </c>
@@ -4425,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76" s="6">
         <v>40071</v>
@@ -4455,7 +4461,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="6">
         <v>72</v>
       </c>
@@ -4466,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E77" s="6">
         <v>40072</v>
@@ -4496,7 +4502,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="6">
         <v>73</v>
       </c>
@@ -4507,7 +4513,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E78" s="6">
         <v>40073</v>
@@ -4537,7 +4543,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="6">
         <v>74</v>
       </c>
@@ -4548,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E79" s="6">
         <v>40074</v>
@@ -4578,7 +4584,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="6">
         <v>75</v>
       </c>
@@ -4589,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E80" s="6">
         <v>40075</v>
@@ -4619,7 +4625,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="6">
         <v>76</v>
       </c>
@@ -4630,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E81" s="6">
         <v>40076</v>
@@ -4660,7 +4666,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="6">
         <v>77</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E82" s="6">
         <v>40077</v>
@@ -4701,7 +4707,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="6">
         <v>78</v>
       </c>
@@ -4712,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E83" s="6">
         <v>40078</v>
@@ -4742,7 +4748,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="6">
         <v>79</v>
       </c>
@@ -4753,7 +4759,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84" s="6">
         <v>40079</v>
@@ -4783,7 +4789,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>80</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E85" s="6">
         <v>40080</v>
@@ -4824,7 +4830,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="6">
         <v>81</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E86" s="6">
         <v>40081</v>
@@ -4865,7 +4871,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="6">
         <v>82</v>
       </c>
@@ -4876,7 +4882,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87" s="6">
         <v>40082</v>
@@ -4906,7 +4912,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="6">
         <v>83</v>
       </c>
@@ -4917,7 +4923,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E88" s="6">
         <v>40083</v>
@@ -4947,7 +4953,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="6">
         <v>84</v>
       </c>
@@ -4958,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E89" s="6">
         <v>40084</v>
@@ -4988,7 +4994,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="6">
         <v>85</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E90" s="6">
         <v>40085</v>
@@ -5029,7 +5035,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="6">
         <v>86</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E91" s="6">
         <v>40086</v>
@@ -5070,7 +5076,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="6">
         <v>87</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E92" s="6">
         <v>40087</v>
@@ -5111,7 +5117,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="6">
         <v>88</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E93" s="6">
         <v>40088</v>
@@ -5152,7 +5158,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="6">
         <v>89</v>
       </c>
@@ -5163,7 +5169,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E94" s="6">
         <v>40089</v>
@@ -5193,7 +5199,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="6">
         <v>90</v>
       </c>
@@ -5204,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E95" s="6">
         <v>40090</v>
@@ -5234,7 +5240,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="6">
         <v>91</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E96" s="6">
         <v>40091</v>
@@ -5275,7 +5281,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="6">
         <v>92</v>
       </c>
@@ -5286,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E97" s="6">
         <v>40092</v>
@@ -5316,7 +5322,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="6">
         <v>93</v>
       </c>
@@ -5327,7 +5333,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E98" s="6">
         <v>40093</v>
@@ -5357,7 +5363,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99" s="6">
         <v>94</v>
       </c>
@@ -5368,7 +5374,7 @@
         <v>3</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E99" s="6">
         <v>40094</v>
@@ -5398,7 +5404,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="6">
         <v>95</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E100" s="6">
         <v>40095</v>
@@ -5439,7 +5445,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="6">
         <v>96</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>3</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E101" s="6">
         <v>40096</v>
@@ -5480,7 +5486,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="6">
         <v>97</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E102" s="6">
         <v>40097</v>
@@ -5521,7 +5527,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="6">
         <v>98</v>
       </c>
@@ -5532,7 +5538,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E103" s="6">
         <v>40098</v>
@@ -5562,7 +5568,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" s="6">
         <v>99</v>
       </c>
@@ -5573,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E104" s="6">
         <v>40099</v>
@@ -5603,7 +5609,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" s="6">
         <v>100</v>
       </c>
@@ -5614,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E105" s="6">
         <v>40100</v>
@@ -5644,7 +5650,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="6">
         <v>101</v>
       </c>
@@ -5655,7 +5661,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E106" s="6">
         <v>40101</v>
@@ -5685,7 +5691,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="6">
         <v>102</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E107" s="6">
         <v>40102</v>
@@ -5726,7 +5732,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108" s="6">
         <v>103</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E108" s="6">
         <v>40103</v>
@@ -5767,7 +5773,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109" s="6">
         <v>104</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E109" s="6">
         <v>40104</v>
@@ -5808,7 +5814,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110" s="6">
         <v>105</v>
       </c>
@@ -5819,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E110" s="6">
         <v>40105</v>
@@ -5849,7 +5855,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111" s="6">
         <v>106</v>
       </c>
@@ -5860,7 +5866,7 @@
         <v>3</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E111" s="6">
         <v>40106</v>
@@ -5890,7 +5896,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112" s="6">
         <v>107</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E112" s="6">
         <v>40107</v>
@@ -5931,7 +5937,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A113" s="6">
         <v>108</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>3</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E113" s="6">
         <v>40108</v>
@@ -5972,7 +5978,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A114" s="6">
         <v>109</v>
       </c>
@@ -5983,7 +5989,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E114" s="6">
         <v>40109</v>
@@ -6013,7 +6019,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="6">
         <v>110</v>
       </c>
@@ -6024,7 +6030,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E115" s="6">
         <v>40110</v>
@@ -6054,7 +6060,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116" s="6">
         <v>111</v>
       </c>
@@ -6065,7 +6071,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E116" s="6">
         <v>40111</v>
@@ -6095,7 +6101,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117" s="6">
         <v>112</v>
       </c>
@@ -6106,7 +6112,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E117" s="6">
         <v>40112</v>
@@ -6136,7 +6142,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118" s="6">
         <v>113</v>
       </c>
@@ -6147,7 +6153,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E118" s="6">
         <v>40113</v>
@@ -6177,7 +6183,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119" s="6">
         <v>114</v>
       </c>
@@ -6188,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E119" s="6">
         <v>40114</v>
@@ -6218,7 +6224,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A120" s="6">
         <v>115</v>
       </c>
@@ -6229,7 +6235,7 @@
         <v>3</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E120" s="6">
         <v>40115</v>
@@ -6259,7 +6265,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121" s="6">
         <v>116</v>
       </c>
@@ -6270,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E121" s="6">
         <v>40116</v>
@@ -6300,7 +6306,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <v>117</v>
       </c>
@@ -6311,7 +6317,7 @@
         <v>3</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E122" s="6">
         <v>40117</v>
@@ -6341,7 +6347,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123" s="6">
         <v>118</v>
       </c>
@@ -6352,7 +6358,7 @@
         <v>3</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E123" s="6">
         <v>40118</v>
@@ -6382,7 +6388,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124" s="6">
         <v>119</v>
       </c>
@@ -6393,7 +6399,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E124" s="6">
         <v>40119</v>
@@ -6423,7 +6429,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125" s="6">
         <v>120</v>
       </c>
@@ -6434,7 +6440,7 @@
         <v>3</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E125" s="6">
         <v>40120</v>
@@ -6464,7 +6470,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126" s="10">
         <v>121</v>
       </c>
@@ -6475,7 +6481,7 @@
         <v>3</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E126" s="10">
         <v>40121</v>
@@ -6507,7 +6513,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127" s="10">
         <v>122</v>
       </c>
@@ -6518,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E127" s="10">
         <v>40122</v>
@@ -6550,7 +6556,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128" s="10">
         <v>123</v>
       </c>
@@ -6561,7 +6567,7 @@
         <v>3</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E128" s="10">
         <v>40123</v>
@@ -6593,7 +6599,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A129" s="10">
         <v>124</v>
       </c>
@@ -6604,7 +6610,7 @@
         <v>3</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E129" s="10">
         <v>40124</v>
@@ -6636,7 +6642,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A130" s="10">
         <v>125</v>
       </c>
@@ -6647,7 +6653,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E130" s="10">
         <v>40125</v>
@@ -6679,7 +6685,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A131" s="10">
         <v>126</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>3</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E131" s="10">
         <v>40126</v>
@@ -6722,7 +6728,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A132" s="10">
         <v>127</v>
       </c>
@@ -6733,7 +6739,7 @@
         <v>3</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E132" s="10">
         <v>40127</v>
@@ -6765,7 +6771,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A133" s="10">
         <v>128</v>
       </c>
@@ -6776,7 +6782,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E133" s="10">
         <v>40128</v>
@@ -6808,7 +6814,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A134" s="10">
         <v>129</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>3</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E134" s="10">
         <v>40129</v>
@@ -6851,7 +6857,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A135" s="10">
         <v>130</v>
       </c>
@@ -6862,7 +6868,7 @@
         <v>3</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E135" s="10">
         <v>40130</v>
@@ -6894,7 +6900,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A136" s="10">
         <v>131</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E136" s="10">
         <v>40131</v>
@@ -6937,7 +6943,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A137" s="10">
         <v>132</v>
       </c>
@@ -6948,7 +6954,7 @@
         <v>3</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E137" s="10">
         <v>40132</v>
@@ -6980,7 +6986,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A138" s="10">
         <v>133</v>
       </c>
@@ -6991,7 +6997,7 @@
         <v>3</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E138" s="10">
         <v>40133</v>
@@ -7023,7 +7029,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A139" s="10">
         <v>134</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E139" s="10">
         <v>40134</v>
@@ -7066,7 +7072,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A140" s="10">
         <v>135</v>
       </c>
@@ -7077,7 +7083,7 @@
         <v>3</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E140" s="10">
         <v>40135</v>
@@ -7109,7 +7115,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A141" s="10">
         <v>136</v>
       </c>
@@ -7120,7 +7126,7 @@
         <v>3</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E141" s="10">
         <v>40136</v>
@@ -7152,7 +7158,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A142" s="10">
         <v>137</v>
       </c>
@@ -7163,7 +7169,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E142" s="10">
         <v>40137</v>
@@ -7195,7 +7201,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A143" s="10">
         <v>138</v>
       </c>
@@ -7206,7 +7212,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E143" s="10">
         <v>40138</v>
@@ -7238,7 +7244,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A144" s="10">
         <v>139</v>
       </c>
@@ -7249,7 +7255,7 @@
         <v>3</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E144" s="10">
         <v>40139</v>
@@ -7281,7 +7287,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A145" s="10">
         <v>140</v>
       </c>
@@ -7292,7 +7298,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E145" s="10">
         <v>40140</v>
@@ -7324,7 +7330,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A146" s="10">
         <v>141</v>
       </c>
@@ -7335,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E146" s="10">
         <v>40141</v>
@@ -7367,7 +7373,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A147" s="10">
         <v>142</v>
       </c>
@@ -7378,7 +7384,7 @@
         <v>3</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E147" s="10">
         <v>40142</v>
@@ -7410,7 +7416,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A148" s="10">
         <v>143</v>
       </c>
@@ -7421,7 +7427,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E148" s="10">
         <v>40143</v>
@@ -7453,7 +7459,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A149" s="10">
         <v>144</v>
       </c>
@@ -7464,7 +7470,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E149" s="10">
         <v>40144</v>
@@ -7496,7 +7502,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A150" s="10">
         <v>145</v>
       </c>
@@ -7507,7 +7513,7 @@
         <v>3</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E150" s="10">
         <v>40145</v>
@@ -7539,7 +7545,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A151" s="10">
         <v>146</v>
       </c>
@@ -7550,7 +7556,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E151" s="10">
         <v>40146</v>
@@ -7582,7 +7588,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A152" s="10">
         <v>147</v>
       </c>
@@ -7593,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E152" s="10">
         <v>40147</v>
@@ -7625,7 +7631,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A153" s="10">
         <v>148</v>
       </c>
@@ -7636,7 +7642,7 @@
         <v>3</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E153" s="10">
         <v>40148</v>
@@ -7668,7 +7674,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A154" s="10">
         <v>149</v>
       </c>
@@ -7679,7 +7685,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E154" s="10">
         <v>40149</v>
@@ -7711,7 +7717,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A155" s="10">
         <v>150</v>
       </c>
@@ -7722,7 +7728,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E155" s="10">
         <v>40150</v>
@@ -7754,7 +7760,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A156" s="10">
         <v>151</v>
       </c>
@@ -7765,7 +7771,7 @@
         <v>3</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E156" s="10">
         <v>40151</v>
@@ -7797,7 +7803,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A157" s="10">
         <v>152</v>
       </c>
@@ -7808,7 +7814,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E157" s="10">
         <v>40152</v>
@@ -7840,7 +7846,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A158" s="10">
         <v>153</v>
       </c>
@@ -7851,7 +7857,7 @@
         <v>3</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E158" s="10">
         <v>40153</v>
@@ -7883,7 +7889,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A159" s="10">
         <v>154</v>
       </c>
@@ -7894,7 +7900,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E159" s="10">
         <v>40154</v>
@@ -7926,7 +7932,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A160" s="10">
         <v>155</v>
       </c>
@@ -7937,7 +7943,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E160" s="10">
         <v>40155</v>
@@ -7969,7 +7975,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A161" s="10">
         <v>156</v>
       </c>
@@ -7980,7 +7986,7 @@
         <v>3</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E161" s="10">
         <v>40156</v>
@@ -8012,7 +8018,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A162" s="10">
         <v>157</v>
       </c>
@@ -8023,7 +8029,7 @@
         <v>3</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E162" s="10">
         <v>40157</v>
@@ -8055,7 +8061,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A163" s="10">
         <v>158</v>
       </c>
@@ -8066,7 +8072,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E163" s="10">
         <v>40158</v>
@@ -8098,7 +8104,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A164" s="10">
         <v>159</v>
       </c>
@@ -8109,7 +8115,7 @@
         <v>3</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E164" s="10">
         <v>40159</v>
@@ -8141,7 +8147,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A165" s="10">
         <v>160</v>
       </c>
@@ -8152,7 +8158,7 @@
         <v>3</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E165" s="10">
         <v>40160</v>
@@ -8184,43 +8190,43 @@
         <v>990</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L166" s="10"/>
       <c r="M166" s="10"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L167" s="10"/>
       <c r="M167" s="10"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L168" s="10"/>
       <c r="M168" s="10"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L169" s="10"/>
       <c r="M169" s="10"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L170" s="10"/>
       <c r="M170" s="10"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L171" s="10"/>
       <c r="M171" s="10"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L172" s="10"/>
       <c r="M172" s="10"/>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L174" s="10"/>
       <c r="M174" s="10"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L175" s="10"/>
       <c r="M175" s="10"/>
     </row>
@@ -8255,12 +8261,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8269,12 +8275,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
